--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52124.84432485724</v>
+        <v>10372844.02064659</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52124.84432485724</v>
+        <v>10372844.02064659</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24189.04338054451</v>
+        <v>2786013.846025852</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24189.04338054451</v>
+        <v>2786013.846025852</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495315526.893468</v>
+        <v>59582329.38092852</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12308.46963008329</v>
+        <v>1341652.396896798</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23891.65814266453</v>
+        <v>2569545.011221078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35474.84665524576</v>
+        <v>3797437.625545358</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48807.55006507442</v>
+        <v>4877521.893139571</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60755.72817171439</v>
+        <v>6105038.986015237</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72703.90627835435</v>
+        <v>7332556.078890898</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84652.0843849943</v>
+        <v>8560073.171766559</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96600.26249163428</v>
+        <v>9787590.264642216</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109865.9695378266</v>
+        <v>10854342.25587279</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121814.1476444665</v>
+        <v>12081859.34874844</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133762.3257511065</v>
+        <v>13309376.44162411</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145311.9430607492</v>
+        <v>14523936.77958476</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156928.5567340283</v>
+        <v>15751829.39390905</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169599.7001517171</v>
+        <v>16833637.82471414</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>186160.2290524341</v>
+        <v>17445603.59748664</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>251</v>
@@ -27052,13 +27052,13 @@
         <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>153</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>141</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
